--- a/NhryService/src/main/webapp/report/template/CollectOrderTemplate.xlsx
+++ b/NhryService/src/main/webapp/report/template/CollectOrderTemplate.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17030"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\works\coding\nhry-platform\NhryService\src\main\webapp\WEB-INF\reportTemplate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\works\coding\nhry-platform\NhryService\src\main\webapp\report\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -106,16 +106,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">                  公司电话：55991234</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">              琴牌  新 希 望 乳 业</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>订奶起止日期：2016-7-21—  2016-8-23</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                  公司电话：4008850555</t>
   </si>
 </sst>
 </file>
@@ -519,6 +518,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -569,69 +631,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -914,7 +913,7 @@
   <dimension ref="B1:R19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -931,96 +930,96 @@
     <row r="1" spans="2:18" ht="14.25" thickBot="1"/>
     <row r="2" spans="2:18" ht="20.25">
       <c r="B2" s="1"/>
-      <c r="C2" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
+      <c r="C2" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
       <c r="M2" s="9"/>
       <c r="N2" s="3"/>
       <c r="O2" s="4"/>
     </row>
     <row r="3" spans="2:18" ht="16.5">
       <c r="B3" s="2"/>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
       <c r="M3" s="10"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="40"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="25"/>
     </row>
     <row r="4" spans="2:18" ht="12" customHeight="1">
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="53" t="s">
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
       <c r="O4" s="5"/>
     </row>
     <row r="5" spans="2:18" ht="12" customHeight="1">
-      <c r="B5" s="56"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="53" t="s">
+      <c r="B5" s="29"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
       <c r="O5" s="5"/>
     </row>
     <row r="6" spans="2:18" ht="16.5">
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="47" t="s">
+      <c r="C6" s="34"/>
+      <c r="D6" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="50"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="38"/>
       <c r="M6" s="11" t="s">
         <v>14</v>
       </c>
@@ -1028,47 +1027,47 @@
       <c r="O6" s="5"/>
     </row>
     <row r="7" spans="2:18" ht="16.5">
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
       <c r="F7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="44" t="s">
+      <c r="G7" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="44"/>
-      <c r="I7" s="42" t="s">
+      <c r="H7" s="40"/>
+      <c r="I7" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="41"/>
-      <c r="K7" s="44" t="s">
+      <c r="J7" s="42"/>
+      <c r="K7" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="44"/>
-      <c r="M7" s="42" t="s">
+      <c r="L7" s="40"/>
+      <c r="M7" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="41"/>
+      <c r="N7" s="42"/>
       <c r="O7" s="5"/>
     </row>
     <row r="8" spans="2:18" ht="16.5">
-      <c r="B8" s="45"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
       <c r="F8" s="13"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="32"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="53"/>
       <c r="O8" s="5"/>
     </row>
     <row r="9" spans="2:18" ht="16.5" customHeight="1">
@@ -1077,226 +1076,195 @@
       <c r="D9" s="16"/>
       <c r="E9" s="17"/>
       <c r="F9" s="13"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="34"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="55"/>
       <c r="O9" s="5"/>
     </row>
     <row r="10" spans="2:18" ht="16.5">
-      <c r="B10" s="43"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
       <c r="F10" s="13"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="34"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="55"/>
       <c r="O10" s="6"/>
     </row>
     <row r="11" spans="2:18" ht="16.5">
-      <c r="B11" s="43"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
       <c r="F11" s="13"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="34"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="55"/>
       <c r="O11" s="6"/>
     </row>
     <row r="12" spans="2:18" ht="16.5">
-      <c r="B12" s="22"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="41"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="42"/>
       <c r="F12" s="14"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="34"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="55"/>
       <c r="O12" s="6"/>
     </row>
     <row r="13" spans="2:18" ht="16.5">
-      <c r="B13" s="22"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="41"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="42"/>
       <c r="F13" s="14"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="34"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="55"/>
       <c r="O13" s="6"/>
       <c r="R13" s="7"/>
     </row>
     <row r="14" spans="2:18" ht="16.5">
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="25"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="46"/>
       <c r="K14" s="15"/>
       <c r="L14" s="8"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="34"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="55"/>
       <c r="O14" s="5"/>
     </row>
     <row r="15" spans="2:18" ht="16.5">
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="36"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="57"/>
       <c r="O15" s="5"/>
     </row>
     <row r="16" spans="2:18" ht="16.5">
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39" t="s">
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="40"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="25"/>
     </row>
     <row r="17" spans="2:15" ht="19.5" customHeight="1">
       <c r="B17" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
       <c r="O17" s="5"/>
     </row>
     <row r="18" spans="2:15" ht="11.25" customHeight="1">
       <c r="B18" s="19"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="51"/>
       <c r="O18" s="5"/>
     </row>
     <row r="19" spans="2:15" ht="17.25" thickBot="1">
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
       <c r="F19" s="20"/>
       <c r="G19" s="21"/>
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
       <c r="J19" s="21"/>
-      <c r="K19" s="28" t="s">
+      <c r="K19" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="29"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="C2:L2"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="B4:D5"/>
-    <mergeCell ref="E4:J5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:L6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
     <mergeCell ref="B14:J14"/>
     <mergeCell ref="B15:J15"/>
     <mergeCell ref="B19:E19"/>
@@ -1313,6 +1281,37 @@
     <mergeCell ref="K13:L13"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:L6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="C2:L2"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="B4:D5"/>
+    <mergeCell ref="E4:J5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.45" bottom="1.37" header="0.3" footer="1.08"/>

--- a/NhryService/src/main/webapp/report/template/CollectOrderTemplate.xlsx
+++ b/NhryService/src/main/webapp/report/template/CollectOrderTemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\works\coding\nhry-platform\NhryService\src\main\webapp\report\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspaces\vbox\nhry-front-pl\NhryService\src\main\webapp\report\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -518,18 +518,99 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -550,87 +631,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -913,10 +913,10 @@
   <dimension ref="B1:R19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="3.125" customWidth="1"/>
     <col min="6" max="6" width="13.875" customWidth="1"/>
@@ -927,99 +927,99 @@
     <col min="15" max="15" width="3.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="14.25" thickBot="1"/>
-    <row r="2" spans="2:18" ht="20.25">
+    <row r="1" spans="2:18" ht="9" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:18" ht="25.5" customHeight="1">
       <c r="B2" s="1"/>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
       <c r="M2" s="9"/>
       <c r="N2" s="3"/>
       <c r="O2" s="4"/>
     </row>
     <row r="3" spans="2:18" ht="16.5">
       <c r="B3" s="2"/>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
       <c r="M3" s="10"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="25"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="40"/>
     </row>
     <row r="4" spans="2:18" ht="12" customHeight="1">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="31" t="s">
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="26" t="s">
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
       <c r="O4" s="5"/>
     </row>
     <row r="5" spans="2:18" ht="12" customHeight="1">
-      <c r="B5" s="29"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="26" t="s">
+      <c r="B5" s="56"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
       <c r="O5" s="5"/>
     </row>
     <row r="6" spans="2:18" ht="16.5">
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="35" t="s">
+      <c r="C6" s="46"/>
+      <c r="D6" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="38"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="50"/>
       <c r="M6" s="11" t="s">
         <v>14</v>
       </c>
@@ -1027,47 +1027,47 @@
       <c r="O6" s="5"/>
     </row>
     <row r="7" spans="2:18" ht="16.5">
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
       <c r="F7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="40" t="s">
+      <c r="G7" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="40"/>
-      <c r="I7" s="41" t="s">
+      <c r="H7" s="44"/>
+      <c r="I7" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="42"/>
-      <c r="K7" s="40" t="s">
+      <c r="J7" s="41"/>
+      <c r="K7" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="40"/>
-      <c r="M7" s="41" t="s">
+      <c r="L7" s="44"/>
+      <c r="M7" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="42"/>
+      <c r="N7" s="41"/>
       <c r="O7" s="5"/>
     </row>
     <row r="8" spans="2:18" ht="16.5">
-      <c r="B8" s="33"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
       <c r="F8" s="13"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="53"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="32"/>
       <c r="O8" s="5"/>
     </row>
     <row r="9" spans="2:18" ht="16.5" customHeight="1">
@@ -1076,195 +1076,226 @@
       <c r="D9" s="16"/>
       <c r="E9" s="17"/>
       <c r="F9" s="13"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="55"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="34"/>
       <c r="O9" s="5"/>
     </row>
     <row r="10" spans="2:18" ht="16.5">
-      <c r="B10" s="39"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
       <c r="F10" s="13"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="55"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="34"/>
       <c r="O10" s="6"/>
     </row>
     <row r="11" spans="2:18" ht="16.5">
-      <c r="B11" s="39"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
       <c r="F11" s="13"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="55"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="34"/>
       <c r="O11" s="6"/>
     </row>
     <row r="12" spans="2:18" ht="16.5">
-      <c r="B12" s="43"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="42"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="41"/>
       <c r="F12" s="14"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="55"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="34"/>
       <c r="O12" s="6"/>
     </row>
     <row r="13" spans="2:18" ht="16.5">
-      <c r="B13" s="43"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="42"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="41"/>
       <c r="F13" s="14"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="55"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="34"/>
       <c r="O13" s="6"/>
       <c r="R13" s="7"/>
     </row>
     <row r="14" spans="2:18" ht="16.5">
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="46"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="25"/>
       <c r="K14" s="15"/>
       <c r="L14" s="8"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="55"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="34"/>
       <c r="O14" s="5"/>
     </row>
     <row r="15" spans="2:18" ht="16.5">
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="57"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="36"/>
       <c r="O15" s="5"/>
     </row>
     <row r="16" spans="2:18" ht="16.5">
-      <c r="B16" s="59" t="s">
+      <c r="B16" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24" t="s">
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24" t="s">
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="25"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="40"/>
     </row>
     <row r="17" spans="2:15" ht="19.5" customHeight="1">
       <c r="B17" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="51"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
       <c r="O17" s="5"/>
     </row>
     <row r="18" spans="2:15" ht="11.25" customHeight="1">
       <c r="B18" s="19"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="51"/>
-      <c r="N18" s="51"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
       <c r="O18" s="5"/>
     </row>
     <row r="19" spans="2:15" ht="17.25" thickBot="1">
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
       <c r="F19" s="20"/>
       <c r="G19" s="21"/>
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
       <c r="J19" s="21"/>
-      <c r="K19" s="49" t="s">
+      <c r="K19" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="L19" s="49"/>
-      <c r="M19" s="49"/>
-      <c r="N19" s="49"/>
-      <c r="O19" s="50"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="C2:L2"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="B4:D5"/>
+    <mergeCell ref="E4:J5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:L6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
     <mergeCell ref="B14:J14"/>
     <mergeCell ref="B15:J15"/>
     <mergeCell ref="B19:E19"/>
@@ -1281,40 +1312,10 @@
     <mergeCell ref="K13:L13"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:L6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="C2:L2"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="B4:D5"/>
-    <mergeCell ref="E4:J5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.25" right="0.25" top="0.45" bottom="1.37" header="0.3" footer="1.08"/>
-  <pageSetup paperSize="132" scale="72" orientation="portrait" r:id="rId1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.43307086614173229" bottom="0.43307086614173229" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="133" scale="68" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/NhryService/src/main/webapp/report/template/CollectOrderTemplate.xlsx
+++ b/NhryService/src/main/webapp/report/template/CollectOrderTemplate.xlsx
@@ -32,9 +32,6 @@
     <t>产品备注</t>
   </si>
   <si>
-    <t>合计</t>
-  </si>
-  <si>
     <t>备注：</t>
   </si>
   <si>
@@ -42,14 +39,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">      送奶员：王小五</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>配送奶站：兴国奶站送奶到户(0108)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">                      订奶专用收据</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -74,34 +63,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>客户姓名：姚杰</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>配送地址：兴国路1号01-06-1001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户电话：13800138000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">      送奶员电话：13800138011</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>奶站地址：青岛市李沧区振华路72-1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>奶站电话：15666827759</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>打印日期：2016-7-22</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>客户签字：</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -110,11 +71,51 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>订奶起止日期：2016-7-21—  2016-8-23</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">                  公司电话：4008850555</t>
+  </si>
+  <si>
+    <t>应收款</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      送奶员：</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      送奶员电话：</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>订奶起止日期：</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>配送奶站：</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>配送地址：</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户姓名：</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户电话：</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶站电话：</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶站地址：</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印日期：</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -473,9 +474,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -494,9 +492,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -518,6 +513,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -615,16 +616,16 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -913,7 +914,7 @@
   <dimension ref="B1:R19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -931,7 +932,7 @@
     <row r="2" spans="2:18" ht="25.5" customHeight="1">
       <c r="B2" s="1"/>
       <c r="C2" s="51" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D2" s="51"/>
       <c r="E2" s="51"/>
@@ -942,14 +943,14 @@
       <c r="J2" s="51"/>
       <c r="K2" s="51"/>
       <c r="L2" s="51"/>
-      <c r="M2" s="9"/>
+      <c r="M2" s="8"/>
       <c r="N2" s="3"/>
       <c r="O2" s="4"/>
     </row>
     <row r="3" spans="2:18" ht="16.5">
       <c r="B3" s="2"/>
       <c r="C3" s="52" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D3" s="52"/>
       <c r="E3" s="52"/>
@@ -960,18 +961,18 @@
       <c r="J3" s="52"/>
       <c r="K3" s="52"/>
       <c r="L3" s="52"/>
-      <c r="M3" s="10"/>
+      <c r="M3" s="9"/>
       <c r="N3" s="39"/>
       <c r="O3" s="40"/>
     </row>
     <row r="4" spans="2:18" ht="12" customHeight="1">
       <c r="B4" s="54" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C4" s="55"/>
       <c r="D4" s="55"/>
       <c r="E4" s="58" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F4" s="58"/>
       <c r="G4" s="58"/>
@@ -979,7 +980,7 @@
       <c r="I4" s="58"/>
       <c r="J4" s="58"/>
       <c r="K4" s="53" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="L4" s="53"/>
       <c r="M4" s="53"/>
@@ -997,7 +998,7 @@
       <c r="I5" s="59"/>
       <c r="J5" s="59"/>
       <c r="K5" s="53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L5" s="53"/>
       <c r="M5" s="53"/>
@@ -1006,11 +1007,11 @@
     </row>
     <row r="6" spans="2:18" ht="16.5">
       <c r="B6" s="45" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C6" s="46"/>
       <c r="D6" s="47" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E6" s="48"/>
       <c r="F6" s="48"/>
@@ -1020,32 +1021,32 @@
       <c r="J6" s="48"/>
       <c r="K6" s="49"/>
       <c r="L6" s="50"/>
-      <c r="M6" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="N6" s="12"/>
+      <c r="M6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" s="11"/>
       <c r="O6" s="5"/>
     </row>
     <row r="7" spans="2:18" ht="16.5">
       <c r="B7" s="43" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C7" s="44"/>
       <c r="D7" s="44"/>
       <c r="E7" s="44"/>
-      <c r="F7" s="13" t="s">
-        <v>8</v>
+      <c r="F7" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="G7" s="44" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H7" s="44"/>
       <c r="I7" s="42" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J7" s="41"/>
       <c r="K7" s="44" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="L7" s="44"/>
       <c r="M7" s="42" t="s">
@@ -1059,7 +1060,7 @@
       <c r="C8" s="46"/>
       <c r="D8" s="46"/>
       <c r="E8" s="46"/>
-      <c r="F8" s="13"/>
+      <c r="F8" s="12"/>
       <c r="G8" s="44"/>
       <c r="H8" s="44"/>
       <c r="I8" s="44"/>
@@ -1071,11 +1072,11 @@
       <c r="O8" s="5"/>
     </row>
     <row r="9" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B9" s="18"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="13"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="12"/>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
       <c r="I9" s="44"/>
@@ -1091,7 +1092,7 @@
       <c r="C10" s="44"/>
       <c r="D10" s="44"/>
       <c r="E10" s="44"/>
-      <c r="F10" s="13"/>
+      <c r="F10" s="12"/>
       <c r="G10" s="44"/>
       <c r="H10" s="44"/>
       <c r="I10" s="44"/>
@@ -1107,7 +1108,7 @@
       <c r="C11" s="44"/>
       <c r="D11" s="44"/>
       <c r="E11" s="44"/>
-      <c r="F11" s="13"/>
+      <c r="F11" s="12"/>
       <c r="G11" s="44"/>
       <c r="H11" s="44"/>
       <c r="I11" s="44"/>
@@ -1123,7 +1124,7 @@
       <c r="C12" s="23"/>
       <c r="D12" s="23"/>
       <c r="E12" s="41"/>
-      <c r="F12" s="14"/>
+      <c r="F12" s="13"/>
       <c r="G12" s="42"/>
       <c r="H12" s="41"/>
       <c r="I12" s="42"/>
@@ -1139,7 +1140,7 @@
       <c r="C13" s="23"/>
       <c r="D13" s="23"/>
       <c r="E13" s="41"/>
-      <c r="F13" s="14"/>
+      <c r="F13" s="13"/>
       <c r="G13" s="42"/>
       <c r="H13" s="41"/>
       <c r="I13" s="42"/>
@@ -1153,7 +1154,7 @@
     </row>
     <row r="14" spans="2:18" ht="16.5">
       <c r="B14" s="22" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" s="23"/>
       <c r="D14" s="23"/>
@@ -1163,15 +1164,15 @@
       <c r="H14" s="23"/>
       <c r="I14" s="24"/>
       <c r="J14" s="25"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="8"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="21"/>
       <c r="M14" s="33"/>
       <c r="N14" s="34"/>
       <c r="O14" s="5"/>
     </row>
     <row r="15" spans="2:18" ht="16.5">
       <c r="B15" s="22" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C15" s="23"/>
       <c r="D15" s="23"/>
@@ -1189,7 +1190,7 @@
     </row>
     <row r="16" spans="2:18" ht="16.5">
       <c r="B16" s="38" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C16" s="39"/>
       <c r="D16" s="39"/>
@@ -1197,21 +1198,21 @@
       <c r="F16" s="39"/>
       <c r="G16" s="39"/>
       <c r="H16" s="39" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I16" s="39"/>
       <c r="J16" s="39"/>
       <c r="K16" s="39"/>
       <c r="L16" s="39" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="M16" s="39"/>
       <c r="N16" s="39"/>
       <c r="O16" s="40"/>
     </row>
     <row r="17" spans="2:15" ht="19.5" customHeight="1">
-      <c r="B17" s="19" t="s">
-        <v>2</v>
+      <c r="B17" s="17" t="s">
+        <v>1</v>
       </c>
       <c r="C17" s="30"/>
       <c r="D17" s="30"/>
@@ -1228,7 +1229,7 @@
       <c r="O17" s="5"/>
     </row>
     <row r="18" spans="2:15" ht="11.25" customHeight="1">
-      <c r="B18" s="19"/>
+      <c r="B18" s="17"/>
       <c r="C18" s="30"/>
       <c r="D18" s="30"/>
       <c r="E18" s="30"/>
@@ -1245,18 +1246,18 @@
     </row>
     <row r="19" spans="2:15" ht="17.25" thickBot="1">
       <c r="B19" s="26" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
       <c r="E19" s="27"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
       <c r="K19" s="28" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="L19" s="28"/>
       <c r="M19" s="28"/>
@@ -1264,7 +1265,7 @@
       <c r="O19" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="48">
     <mergeCell ref="C2:L2"/>
     <mergeCell ref="C3:L3"/>
     <mergeCell ref="N3:O3"/>
@@ -1290,12 +1291,14 @@
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="K10:L10"/>
+    <mergeCell ref="G11:H11"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K14:L14"/>
     <mergeCell ref="B14:J14"/>
     <mergeCell ref="B15:J15"/>
     <mergeCell ref="B19:E19"/>
@@ -1311,11 +1314,10 @@
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="K13:L13"/>
     <mergeCell ref="B11:E11"/>
-    <mergeCell ref="G11:H11"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.43307086614173229" bottom="0.43307086614173229" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="133" scale="68" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.19685039370078741" bottom="0.43307086614173229" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="133" scale="72" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/NhryService/src/main/webapp/report/template/CollectOrderTemplate.xlsx
+++ b/NhryService/src/main/webapp/report/template/CollectOrderTemplate.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -188,7 +188,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -196,13 +196,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -216,21 +225,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -240,17 +234,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -259,17 +244,56 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -552,7 +576,7 @@
   <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -567,411 +591,443 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="9" customHeight="1">
-      <c r="A1" s="11"/>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
     </row>
     <row r="2" spans="1:18" ht="25.5" customHeight="1">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="13" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
     </row>
     <row r="3" spans="1:18" ht="16.5">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="5" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
       <c r="M3" s="2"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
     </row>
     <row r="4" spans="1:18" ht="12" customHeight="1">
-      <c r="A4" s="11"/>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="9" t="s">
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="7" t="s">
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="12"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="7"/>
     </row>
     <row r="5" spans="1:18" ht="12" customHeight="1">
-      <c r="A5" s="11"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="7" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="12"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="7"/>
     </row>
     <row r="6" spans="1:18" ht="16.5">
-      <c r="A6" s="11"/>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6" t="s">
+      <c r="C6" s="15"/>
+      <c r="D6" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
       <c r="M6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="15"/>
-      <c r="O6" s="12"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="7"/>
     </row>
     <row r="7" spans="1:18" ht="16.5">
-      <c r="A7" s="11"/>
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="6"/>
+      <c r="B7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
       <c r="F7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10" t="s">
+      <c r="H7" s="13"/>
+      <c r="I7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10" t="s">
+      <c r="J7" s="13"/>
+      <c r="K7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10" t="s">
+      <c r="L7" s="13"/>
+      <c r="M7" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="10"/>
-      <c r="O7" s="12"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="7"/>
     </row>
     <row r="8" spans="1:18" ht="16.5">
-      <c r="A8" s="11"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="12"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="7"/>
     </row>
     <row r="9" spans="1:18" ht="16.5" customHeight="1">
-      <c r="A9" s="11"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
       <c r="M9" s="16"/>
       <c r="N9" s="16"/>
-      <c r="O9" s="12"/>
+      <c r="O9" s="7"/>
     </row>
     <row r="10" spans="1:18" ht="16.5">
-      <c r="A10" s="11"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
       <c r="M10" s="16"/>
       <c r="N10" s="16"/>
-      <c r="O10" s="18"/>
+      <c r="O10" s="10"/>
     </row>
     <row r="11" spans="1:18" ht="16.5">
-      <c r="A11" s="11"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
       <c r="M11" s="16"/>
       <c r="N11" s="16"/>
-      <c r="O11" s="18"/>
+      <c r="O11" s="10"/>
     </row>
     <row r="12" spans="1:18" ht="16.5">
-      <c r="A12" s="11"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
       <c r="M12" s="16"/>
       <c r="N12" s="16"/>
-      <c r="O12" s="18"/>
+      <c r="O12" s="10"/>
     </row>
     <row r="13" spans="1:18" ht="16.5">
-      <c r="A13" s="11"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
       <c r="M13" s="16"/>
       <c r="N13" s="16"/>
-      <c r="O13" s="18"/>
+      <c r="O13" s="10"/>
       <c r="R13" s="1"/>
     </row>
     <row r="14" spans="1:18" ht="16.5">
-      <c r="A14" s="11"/>
-      <c r="B14" s="10" t="s">
+      <c r="A14" s="6"/>
+      <c r="B14" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
       <c r="M14" s="16"/>
       <c r="N14" s="16"/>
-      <c r="O14" s="12"/>
+      <c r="O14" s="7"/>
     </row>
     <row r="15" spans="1:18" ht="16.5">
-      <c r="A15" s="11"/>
-      <c r="B15" s="10" t="s">
+      <c r="A15" s="6"/>
+      <c r="B15" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="19"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="14"/>
       <c r="M15" s="16"/>
       <c r="N15" s="16"/>
-      <c r="O15" s="12"/>
+      <c r="O15" s="7"/>
     </row>
     <row r="16" spans="1:18" ht="16.5">
-      <c r="A16" s="11"/>
-      <c r="B16" s="6" t="s">
+      <c r="A16" s="6"/>
+      <c r="B16" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6" t="s">
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6" t="s">
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
     </row>
     <row r="17" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A17" s="11"/>
-      <c r="B17" s="22" t="s">
+      <c r="A17" s="6"/>
+      <c r="B17" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="12"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="7"/>
     </row>
     <row r="18" spans="1:15" ht="11.25" customHeight="1">
-      <c r="A18" s="11"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="12"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="7"/>
     </row>
     <row r="19" spans="1:15" ht="16.5">
-      <c r="A19" s="11"/>
-      <c r="B19" s="6" t="s">
+      <c r="A19" s="6"/>
+      <c r="B19" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="10" t="s">
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="C2:M2"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="B4:D5"/>
+    <mergeCell ref="E4:J5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:L6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
     <mergeCell ref="K14:L14"/>
     <mergeCell ref="B14:J14"/>
     <mergeCell ref="B15:J15"/>
@@ -988,38 +1044,6 @@
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="K13:L13"/>
     <mergeCell ref="B11:E11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:L6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="B4:D5"/>
-    <mergeCell ref="E4:J5"/>
-    <mergeCell ref="C2:M2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/NhryService/src/main/webapp/report/template/CollectOrderTemplate.xlsx
+++ b/NhryService/src/main/webapp/report/template/CollectOrderTemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IBM_ADMIN\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\works\coding\nhry-platform-cbz\NhryService\src\main\webapp\report\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,10 +27,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -476,7 +472,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.71" right="0.98425196850393704" top="7.874015748031496E-2" bottom="0.15748031496062992" header="7.874015748031496E-2" footer="7.874015748031496E-2"/>
-  <pageSetup paperSize="133" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <pageMargins left="0.71" right="0.98425196850393704" top="7.8740157480315001E-2" bottom="0.15748031496063" header="7.8740157480315001E-2" footer="7.8740157480315001E-2"/>
+  <pageSetup paperSize="212" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
 </file>